--- a/Jogos_do_Dia/2023-12-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="K2" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="L2" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="M2" t="n">
         <v>1.25</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="T2" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -796,7 +796,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,134 +808,134 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>FC Arouca</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>8.27</v>
+        <v>2.67</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.29</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.56</v>
-      </c>
       <c r="AA3" t="n">
-        <v>1.44</v>
+        <v>0.83</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,128 +947,128 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FC Arouca</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.65</v>
+        <v>1.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>5.35</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7</v>
+        <v>8.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>2.43</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.29</v>
+        <v>2.56</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.83</v>
+        <v>1.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.25</v>
+        <v>3.18</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.49</v>
+        <v>2.31</v>
       </c>
       <c r="K2" t="n">
-        <v>3.96</v>
+        <v>4.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="M2" t="n">
         <v>1.25</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="T2" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -796,7 +796,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,134 +808,134 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FC Arouca</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>1.33</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.67</v>
+        <v>9.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>2.43</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.29</v>
+        <v>2.56</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.83</v>
+        <v>1.44</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.25</v>
+        <v>3.18</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,128 +947,128 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>FC Arouca</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.35</v>
+        <v>2.53</v>
       </c>
       <c r="K4" t="n">
-        <v>5.35</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>8.6</v>
+        <v>2.56</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>1.29</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.56</v>
-      </c>
       <c r="AA4" t="n">
-        <v>1.44</v>
+        <v>0.83</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
